--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,107 +41,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>资料配置</t>
+  </si>
+  <si>
+    <t>促销活动</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-003</t>
+  </si>
+  <si>
+    <t>login-004</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券-新增未开始的活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券-新增进行中的活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券-未开始检查</t>
+  </si>
+  <si>
+    <t>优惠券-已结束检查</t>
+  </si>
+  <si>
+    <t>login-005</t>
+  </si>
+  <si>
+    <t>login-006</t>
+  </si>
+  <si>
+    <t>login-007</t>
+  </si>
+  <si>
+    <t>login-008</t>
+  </si>
+  <si>
+    <t>优惠券-进行中检查</t>
+  </si>
+  <si>
+    <t>优惠券-已结束及全部检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-009</t>
+  </si>
+  <si>
+    <t>login-010</t>
+  </si>
+  <si>
+    <t>login-011</t>
+  </si>
+  <si>
+    <t>login-012</t>
+  </si>
+  <si>
+    <t>login-013</t>
+  </si>
+  <si>
+    <t>秒杀-新增进行中的活动</t>
+  </si>
+  <si>
+    <t>秒杀-未开始检查</t>
+  </si>
+  <si>
+    <t>秒杀-进行中检查</t>
+  </si>
+  <si>
+    <t>秒杀-新增未开始的活动</t>
+  </si>
+  <si>
+    <t>蘑盒服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑盒服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>资料配置</t>
-  </si>
-  <si>
     <t>login-002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销活动</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-003</t>
-  </si>
-  <si>
-    <t>login-004</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券-新增未开始的活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券-新增进行中的活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券-未开始检查</t>
-  </si>
-  <si>
-    <t>优惠券-已结束检查</t>
-  </si>
-  <si>
-    <t>login-005</t>
-  </si>
-  <si>
-    <t>login-006</t>
-  </si>
-  <si>
-    <t>login-007</t>
-  </si>
-  <si>
-    <t>login-008</t>
-  </si>
-  <si>
-    <t>优惠券-进行中检查</t>
-  </si>
-  <si>
-    <t>优惠券-已结束及全部检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-009</t>
-  </si>
-  <si>
-    <t>login-010</t>
-  </si>
-  <si>
-    <t>login-011</t>
-  </si>
-  <si>
-    <t>login-012</t>
-  </si>
-  <si>
-    <t>login-013</t>
-  </si>
-  <si>
-    <t>秒杀-新增进行中的活动</t>
-  </si>
-  <si>
-    <t>秒杀-未开始检查</t>
-  </si>
-  <si>
-    <t>秒杀-进行中检查</t>
-  </si>
-  <si>
-    <t>秒杀-新增未开始的活动</t>
-  </si>
-  <si>
-    <t>蘑盒服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑盒服务</t>
+  </si>
+  <si>
+    <t>login-014</t>
+  </si>
+  <si>
+    <t>login-015</t>
+  </si>
+  <si>
+    <t>门店模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-016</t>
   </si>
 </sst>
 </file>
@@ -474,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,153 +527,153 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -661,41 +681,69 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,15 +153,159 @@
     <t>login-015</t>
   </si>
   <si>
-    <t>门店模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>login-016</t>
+  </si>
+  <si>
+    <t>门店模块-关店</t>
+  </si>
+  <si>
+    <t>login-017</t>
   </si>
   <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-016</t>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店模块-开店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-018</t>
+  </si>
+  <si>
+    <t>login-019</t>
+  </si>
+  <si>
+    <t>login-020</t>
+  </si>
+  <si>
+    <t>login-021</t>
+  </si>
+  <si>
+    <t>login-022</t>
+  </si>
+  <si>
+    <t>login-023</t>
+  </si>
+  <si>
+    <t>login-024</t>
+  </si>
+  <si>
+    <t>login-025</t>
+  </si>
+  <si>
+    <t>login-026</t>
+  </si>
+  <si>
+    <t>login-027</t>
+  </si>
+  <si>
+    <t>login-028</t>
+  </si>
+  <si>
+    <t>login-029</t>
+  </si>
+  <si>
+    <t>login-030</t>
+  </si>
+  <si>
+    <t>login-031</t>
+  </si>
+  <si>
+    <t>login-032</t>
+  </si>
+  <si>
+    <t>login-033</t>
+  </si>
+  <si>
+    <t>login-034</t>
+  </si>
+  <si>
+    <t>login-035</t>
+  </si>
+  <si>
+    <t>login-036</t>
+  </si>
+  <si>
+    <t>login-037</t>
+  </si>
+  <si>
+    <t>login-038</t>
+  </si>
+  <si>
+    <t>login-039</t>
+  </si>
+  <si>
+    <t>login-040</t>
+  </si>
+  <si>
+    <t>login-041</t>
+  </si>
+  <si>
+    <t>login-042</t>
+  </si>
+  <si>
+    <t>login-043</t>
+  </si>
+  <si>
+    <t>login-044</t>
+  </si>
+  <si>
+    <t>login-045</t>
+  </si>
+  <si>
+    <t>login-046</t>
+  </si>
+  <si>
+    <t>login-047</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-048</t>
+  </si>
+  <si>
+    <t>login-049</t>
+  </si>
+  <si>
+    <t>login-050</t>
+  </si>
+  <si>
+    <t>login-051</t>
+  </si>
+  <si>
+    <t>login-052</t>
+  </si>
+  <si>
+    <t>login-053</t>
+  </si>
+  <si>
+    <t>login-054</t>
+  </si>
+  <si>
+    <t>login-055</t>
+  </si>
+  <si>
+    <t>login-056</t>
+  </si>
+  <si>
+    <t>login-057</t>
+  </si>
+  <si>
+    <t>login-058</t>
+  </si>
+  <si>
+    <t>login-059</t>
   </si>
 </sst>
 </file>
@@ -494,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -544,7 +688,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -572,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -734,16 +878,618 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,172 +140,193 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>login-002</t>
+  </si>
+  <si>
+    <t>login-014</t>
+  </si>
+  <si>
+    <t>login-015</t>
+  </si>
+  <si>
+    <t>login-016</t>
+  </si>
+  <si>
+    <t>门店模块-关店</t>
+  </si>
+  <si>
+    <t>login-017</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店模块-开店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-018</t>
+  </si>
+  <si>
+    <t>login-019</t>
+  </si>
+  <si>
+    <t>login-020</t>
+  </si>
+  <si>
+    <t>login-021</t>
+  </si>
+  <si>
+    <t>login-022</t>
+  </si>
+  <si>
+    <t>login-023</t>
+  </si>
+  <si>
+    <t>login-024</t>
+  </si>
+  <si>
+    <t>login-025</t>
+  </si>
+  <si>
+    <t>login-026</t>
+  </si>
+  <si>
+    <t>login-027</t>
+  </si>
+  <si>
+    <t>login-028</t>
+  </si>
+  <si>
+    <t>login-029</t>
+  </si>
+  <si>
+    <t>login-030</t>
+  </si>
+  <si>
+    <t>login-031</t>
+  </si>
+  <si>
+    <t>login-032</t>
+  </si>
+  <si>
+    <t>login-033</t>
+  </si>
+  <si>
+    <t>login-034</t>
+  </si>
+  <si>
+    <t>login-035</t>
+  </si>
+  <si>
+    <t>login-036</t>
+  </si>
+  <si>
+    <t>login-037</t>
+  </si>
+  <si>
+    <t>login-038</t>
+  </si>
+  <si>
+    <t>login-039</t>
+  </si>
+  <si>
+    <t>login-040</t>
+  </si>
+  <si>
+    <t>login-041</t>
+  </si>
+  <si>
+    <t>login-042</t>
+  </si>
+  <si>
+    <t>login-043</t>
+  </si>
+  <si>
+    <t>login-044</t>
+  </si>
+  <si>
+    <t>login-045</t>
+  </si>
+  <si>
+    <t>login-046</t>
+  </si>
+  <si>
+    <t>login-047</t>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-002</t>
-  </si>
-  <si>
-    <t>login-014</t>
-  </si>
-  <si>
-    <t>login-015</t>
-  </si>
-  <si>
-    <t>login-016</t>
-  </si>
-  <si>
-    <t>门店模块-关店</t>
-  </si>
-  <si>
-    <t>login-017</t>
+    <t>login-048</t>
+  </si>
+  <si>
+    <t>login-049</t>
+  </si>
+  <si>
+    <t>login-050</t>
+  </si>
+  <si>
+    <t>login-051</t>
+  </si>
+  <si>
+    <t>login-052</t>
+  </si>
+  <si>
+    <t>login-053</t>
+  </si>
+  <si>
+    <t>login-054</t>
+  </si>
+  <si>
+    <t>login-055</t>
+  </si>
+  <si>
+    <t>login-056</t>
+  </si>
+  <si>
+    <t>login-057</t>
+  </si>
+  <si>
+    <t>login-058</t>
+  </si>
+  <si>
+    <t>login-059</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部员工模块</t>
+  </si>
+  <si>
+    <t>全部员工模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>login-060</t>
+  </si>
+  <si>
+    <t>全部已购客户</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店模块-开店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-018</t>
-  </si>
-  <si>
-    <t>login-019</t>
-  </si>
-  <si>
-    <t>login-020</t>
-  </si>
-  <si>
-    <t>login-021</t>
-  </si>
-  <si>
-    <t>login-022</t>
-  </si>
-  <si>
-    <t>login-023</t>
-  </si>
-  <si>
-    <t>login-024</t>
-  </si>
-  <si>
-    <t>login-025</t>
-  </si>
-  <si>
-    <t>login-026</t>
-  </si>
-  <si>
-    <t>login-027</t>
-  </si>
-  <si>
-    <t>login-028</t>
-  </si>
-  <si>
-    <t>login-029</t>
-  </si>
-  <si>
-    <t>login-030</t>
-  </si>
-  <si>
-    <t>login-031</t>
-  </si>
-  <si>
-    <t>login-032</t>
-  </si>
-  <si>
-    <t>login-033</t>
-  </si>
-  <si>
-    <t>login-034</t>
-  </si>
-  <si>
-    <t>login-035</t>
-  </si>
-  <si>
-    <t>login-036</t>
-  </si>
-  <si>
-    <t>login-037</t>
-  </si>
-  <si>
-    <t>login-038</t>
-  </si>
-  <si>
-    <t>login-039</t>
-  </si>
-  <si>
-    <t>login-040</t>
-  </si>
-  <si>
-    <t>login-041</t>
-  </si>
-  <si>
-    <t>login-042</t>
-  </si>
-  <si>
-    <t>login-043</t>
-  </si>
-  <si>
-    <t>login-044</t>
-  </si>
-  <si>
-    <t>login-045</t>
-  </si>
-  <si>
-    <t>login-046</t>
-  </si>
-  <si>
-    <t>login-047</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-048</t>
-  </si>
-  <si>
-    <t>login-049</t>
-  </si>
-  <si>
-    <t>login-050</t>
-  </si>
-  <si>
-    <t>login-051</t>
-  </si>
-  <si>
-    <t>login-052</t>
-  </si>
-  <si>
-    <t>login-053</t>
-  </si>
-  <si>
-    <t>login-054</t>
-  </si>
-  <si>
-    <t>login-055</t>
-  </si>
-  <si>
-    <t>login-056</t>
-  </si>
-  <si>
-    <t>login-057</t>
-  </si>
-  <si>
-    <t>login-058</t>
-  </si>
-  <si>
-    <t>login-059</t>
   </si>
 </sst>
 </file>
@@ -638,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A61" sqref="A38:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,50 +673,50 @@
     <col min="4" max="4" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -709,21 +730,21 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -737,7 +758,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -751,7 +772,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -765,7 +786,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -779,7 +800,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
@@ -793,7 +814,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
@@ -807,7 +828,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -821,7 +842,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -835,7 +856,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -849,8 +870,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
+      <c r="A15" t="s">
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -863,8 +884,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -877,619 +898,633 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>84</v>
       </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>85</v>
       </c>
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -260,65 +260,61 @@
     <t>login-047</t>
   </si>
   <si>
+    <t>login-048</t>
+  </si>
+  <si>
+    <t>login-049</t>
+  </si>
+  <si>
+    <t>login-050</t>
+  </si>
+  <si>
+    <t>login-051</t>
+  </si>
+  <si>
+    <t>login-052</t>
+  </si>
+  <si>
+    <t>login-053</t>
+  </si>
+  <si>
+    <t>login-054</t>
+  </si>
+  <si>
+    <t>login-055</t>
+  </si>
+  <si>
+    <t>login-056</t>
+  </si>
+  <si>
+    <t>login-057</t>
+  </si>
+  <si>
+    <t>login-058</t>
+  </si>
+  <si>
+    <t>login-059</t>
+  </si>
+  <si>
+    <t>全部员工模块</t>
+  </si>
+  <si>
+    <t>全部员工模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-048</t>
-  </si>
-  <si>
-    <t>login-049</t>
-  </si>
-  <si>
-    <t>login-050</t>
-  </si>
-  <si>
-    <t>login-051</t>
-  </si>
-  <si>
-    <t>login-052</t>
-  </si>
-  <si>
-    <t>login-053</t>
-  </si>
-  <si>
-    <t>login-054</t>
-  </si>
-  <si>
-    <t>login-055</t>
-  </si>
-  <si>
-    <t>login-056</t>
-  </si>
-  <si>
-    <t>login-057</t>
-  </si>
-  <si>
-    <t>login-058</t>
-  </si>
-  <si>
-    <t>login-059</t>
+    <t>login-060</t>
+  </si>
+  <si>
+    <t>全部已购客户</t>
   </si>
   <si>
     <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部员工模块</t>
-  </si>
-  <si>
-    <t>全部员工模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login-060</t>
-  </si>
-  <si>
-    <t>全部已购客户</t>
   </si>
   <si>
     <t>y</t>
@@ -661,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A61" sqref="A38:XFD61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -709,7 +705,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -930,13 +926,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,13 +940,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -975,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -989,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -1003,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -1017,7 +1013,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -1031,7 +1027,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -1045,7 +1041,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1059,7 +1055,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
@@ -1073,7 +1069,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -1087,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -1101,7 +1097,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -1115,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -1129,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -1143,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1157,7 +1153,7 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -1171,7 +1167,7 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
@@ -1185,7 +1181,7 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -1199,7 +1195,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -1213,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
@@ -1227,7 +1223,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -1241,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1255,7 +1251,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -1269,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -1283,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -1297,7 +1293,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -1311,7 +1307,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
@@ -1325,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
@@ -1339,7 +1335,7 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
         <v>43</v>
@@ -1347,13 +1343,13 @@
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -1361,13 +1357,13 @@
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -1375,13 +1371,13 @@
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -1389,13 +1385,13 @@
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
@@ -1403,13 +1399,13 @@
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
@@ -1417,13 +1413,13 @@
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
@@ -1431,13 +1427,13 @@
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
         <v>43</v>
@@ -1445,13 +1441,13 @@
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
@@ -1459,13 +1455,13 @@
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
@@ -1473,13 +1469,13 @@
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -1487,13 +1483,13 @@
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
         <v>43</v>
@@ -1501,13 +1497,13 @@
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -1515,13 +1511,13 @@
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,10 +60,6 @@
     <t>login-004</t>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠券-新增未开始的活动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,14 +154,6 @@
     <t>login-017</t>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>门店模块-开店</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,22 +291,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>login-060</t>
+  </si>
+  <si>
+    <t>全部已购客户</t>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-060</t>
-  </si>
-  <si>
-    <t>全部已购客户</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>login-061</t>
+  </si>
+  <si>
+    <t>业绩模块-成交金额业绩</t>
+  </si>
+  <si>
+    <t>业绩模块-带客数业绩</t>
+  </si>
+  <si>
+    <t>业绩模块-订单量业绩</t>
   </si>
   <si>
     <t>n</t>
@@ -655,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -699,16 +691,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -719,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -730,164 +722,164 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -895,632 +887,646 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>88</v>
       </c>
-      <c r="D61" t="s">
-        <v>43</v>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,16 +47,10 @@
     <t>资料配置</t>
   </si>
   <si>
-    <t>促销活动</t>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-003</t>
-  </si>
-  <si>
     <t>login-004</t>
   </si>
   <si>
@@ -311,6 +305,10 @@
   </si>
   <si>
     <t>业绩模块-订单量业绩</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n</t>
@@ -647,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -691,41 +689,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -733,111 +731,111 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -845,47 +843,47 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -893,7 +891,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -904,629 +902,615 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="97">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,27 +291,42 @@
     <t>全部已购客户</t>
   </si>
   <si>
+    <t>login-061</t>
+  </si>
+  <si>
+    <t>业绩模块-成交金额业绩</t>
+  </si>
+  <si>
+    <t>业绩模块-带客数业绩</t>
+  </si>
+  <si>
+    <t>业绩模块-订单量业绩</t>
+  </si>
+  <si>
+    <t>全部商品-全部上架商品</t>
+  </si>
+  <si>
+    <t>全部商品-微店上架商品</t>
+  </si>
+  <si>
+    <t>全部商品-下架商品</t>
+  </si>
+  <si>
+    <t>标签规则模块</t>
+  </si>
+  <si>
+    <t>我的门店-门店商品</t>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login-061</t>
-  </si>
-  <si>
-    <t>业绩模块-成交金额业绩</t>
-  </si>
-  <si>
-    <t>业绩模块-带客数业绩</t>
-  </si>
-  <si>
-    <t>业绩模块-订单量业绩</t>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +663,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -695,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -709,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -723,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -737,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -751,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -765,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -779,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -793,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -807,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -821,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -835,7 +850,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -849,7 +864,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -863,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -877,7 +892,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -891,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -905,7 +920,7 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -919,7 +934,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -930,13 +945,13 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,13 +959,13 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,13 +973,13 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -972,13 +987,13 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -986,13 +1001,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,13 +1015,13 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1014,13 +1029,13 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,13 +1043,13 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,7 +1516,7 @@
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -794,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -850,7 +850,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="98">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +667,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,11 +326,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的门店-订单</t>
+  </si>
+  <si>
     <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +670,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -896,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -910,7 +913,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -924,7 +927,7 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -938,7 +941,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -952,7 +955,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
@@ -966,7 +969,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -980,7 +983,7 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -994,7 +997,7 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -1008,7 +1011,7 @@
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
@@ -1022,7 +1025,7 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -1036,7 +1039,7 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
@@ -1050,7 +1053,7 @@
         <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
@@ -1061,13 +1064,13 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
   <si>
     <t>testid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,9 +65,6 @@
     <t>优惠券-未开始检查</t>
   </si>
   <si>
-    <t>优惠券-已结束检查</t>
-  </si>
-  <si>
     <t>login-005</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>login-007</t>
   </si>
   <si>
-    <t>login-008</t>
-  </si>
-  <si>
     <t>优惠券-进行中检查</t>
   </si>
   <si>
@@ -102,26 +96,6 @@
     <t>login-013</t>
   </si>
   <si>
-    <t>秒杀-新增进行中的活动</t>
-  </si>
-  <si>
-    <t>秒杀-未开始检查</t>
-  </si>
-  <si>
-    <t>秒杀-进行中检查</t>
-  </si>
-  <si>
-    <t>秒杀-新增未开始的活动</t>
-  </si>
-  <si>
-    <t>蘑盒服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑盒服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录135</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,9 +107,6 @@
     <t>login-002</t>
   </si>
   <si>
-    <t>login-014</t>
-  </si>
-  <si>
     <t>login-015</t>
   </si>
   <si>
@@ -318,23 +289,31 @@
     <t>我的门店-门店商品</t>
   </si>
   <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的门店-订单</t>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的门店-订单</t>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒商品-新增未开始的活动</t>
+  </si>
+  <si>
+    <t>秒商品-未开始检查</t>
+  </si>
+  <si>
+    <t>秒商品-新增进行中的活动</t>
+  </si>
+  <si>
+    <t>秒商品-进行中检查</t>
   </si>
 </sst>
 </file>
@@ -667,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -711,16 +690,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -739,13 +718,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -753,13 +732,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -767,111 +746,111 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -879,660 +858,632 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/WEB测试用例集.xlsx
+++ b/moyusi/WEB测试用例集.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C26"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
